--- a/data/raw/haver/state_local_employment.xlsx
+++ b/data/raw/haver/state_local_employment.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C613"/>
+  <dimension ref="A1:D613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,6 +380,11 @@
           <t>lalgova</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cpgs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -391,6 +396,9 @@
       <c r="C2">
         <v>7030</v>
       </c>
+      <c r="D2">
+        <v>23513</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -402,6 +410,9 @@
       <c r="C3">
         <v>7057</v>
       </c>
+      <c r="D3">
+        <v>23043</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -413,6 +424,9 @@
       <c r="C4">
         <v>7059</v>
       </c>
+      <c r="D4">
+        <v>24081</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -424,6 +438,9 @@
       <c r="C5">
         <v>7075</v>
       </c>
+      <c r="D5">
+        <v>23137</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -435,6 +452,9 @@
       <c r="C6">
         <v>7101</v>
       </c>
+      <c r="D6">
+        <v>23939</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -446,6 +466,9 @@
       <c r="C7">
         <v>7137</v>
       </c>
+      <c r="D7">
+        <v>25035</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -457,6 +480,9 @@
       <c r="C8">
         <v>7183</v>
       </c>
+      <c r="D8">
+        <v>26516</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -468,6 +494,9 @@
       <c r="C9">
         <v>7204</v>
       </c>
+      <c r="D9">
+        <v>25262</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -479,6 +508,9 @@
       <c r="C10">
         <v>7226</v>
       </c>
+      <c r="D10">
+        <v>24679</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -490,6 +522,9 @@
       <c r="C11">
         <v>7258</v>
       </c>
+      <c r="D11">
+        <v>24577</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -501,6 +536,9 @@
       <c r="C12">
         <v>7286</v>
       </c>
+      <c r="D12">
+        <v>25845</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -512,6 +550,9 @@
       <c r="C13">
         <v>7294</v>
       </c>
+      <c r="D13">
+        <v>26842</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -523,6 +564,9 @@
       <c r="C14">
         <v>7330</v>
       </c>
+      <c r="D14">
+        <v>24829</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -534,6 +578,9 @@
       <c r="C15">
         <v>7351</v>
       </c>
+      <c r="D15">
+        <v>25919</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -545,6 +592,9 @@
       <c r="C16">
         <v>7379</v>
       </c>
+      <c r="D16">
+        <v>26391</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -556,6 +606,9 @@
       <c r="C17">
         <v>7402</v>
       </c>
+      <c r="D17">
+        <v>26298</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -567,6 +620,9 @@
       <c r="C18">
         <v>7424</v>
       </c>
+      <c r="D18">
+        <v>26054</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -578,6 +634,9 @@
       <c r="C19">
         <v>7433</v>
       </c>
+      <c r="D19">
+        <v>25644</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -589,6 +648,9 @@
       <c r="C20">
         <v>7427</v>
       </c>
+      <c r="D20">
+        <v>26415</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -600,6 +662,9 @@
       <c r="C21">
         <v>7436</v>
       </c>
+      <c r="D21">
+        <v>24953</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -611,6 +676,9 @@
       <c r="C22">
         <v>7468</v>
       </c>
+      <c r="D22">
+        <v>25705</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -622,6 +690,9 @@
       <c r="C23">
         <v>7501</v>
       </c>
+      <c r="D23">
+        <v>26607</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -633,6 +704,9 @@
       <c r="C24">
         <v>7527</v>
       </c>
+      <c r="D24">
+        <v>26307</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -644,6 +718,9 @@
       <c r="C25">
         <v>7574</v>
       </c>
+      <c r="D25">
+        <v>25622</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
@@ -655,6 +732,9 @@
       <c r="C26">
         <v>7621</v>
       </c>
+      <c r="D26">
+        <v>26557</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -666,6 +746,9 @@
       <c r="C27">
         <v>7657</v>
       </c>
+      <c r="D27">
+        <v>24381</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
@@ -677,6 +760,9 @@
       <c r="C28">
         <v>7677</v>
       </c>
+      <c r="D28">
+        <v>25619</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
@@ -688,6 +774,9 @@
       <c r="C29">
         <v>7699</v>
       </c>
+      <c r="D29">
+        <v>24866</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
@@ -699,6 +788,9 @@
       <c r="C30">
         <v>7728</v>
       </c>
+      <c r="D30">
+        <v>24855</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
@@ -710,6 +802,9 @@
       <c r="C31">
         <v>7752</v>
       </c>
+      <c r="D31">
+        <v>24904</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
@@ -721,6 +816,9 @@
       <c r="C32">
         <v>7835</v>
       </c>
+      <c r="D32">
+        <v>25087</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
@@ -732,6 +830,9 @@
       <c r="C33">
         <v>7853</v>
       </c>
+      <c r="D33">
+        <v>25568</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
@@ -743,6 +844,9 @@
       <c r="C34">
         <v>7877</v>
       </c>
+      <c r="D34">
+        <v>26268</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
@@ -754,6 +858,9 @@
       <c r="C35">
         <v>7901</v>
       </c>
+      <c r="D35">
+        <v>27372</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
@@ -765,6 +872,9 @@
       <c r="C36">
         <v>7930</v>
       </c>
+      <c r="D36">
+        <v>25936</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
@@ -776,6 +886,9 @@
       <c r="C37">
         <v>7963</v>
       </c>
+      <c r="D37">
+        <v>28035</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
@@ -787,6 +900,9 @@
       <c r="C38">
         <v>7987</v>
       </c>
+      <c r="D38">
+        <v>27639</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
@@ -798,6 +914,9 @@
       <c r="C39">
         <v>8012</v>
       </c>
+      <c r="D39">
+        <v>26864</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
@@ -809,6 +928,9 @@
       <c r="C40">
         <v>8049</v>
       </c>
+      <c r="D40">
+        <v>27915</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
@@ -820,6 +942,9 @@
       <c r="C41">
         <v>8086</v>
       </c>
+      <c r="D41">
+        <v>27562</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
@@ -831,6 +956,9 @@
       <c r="C42">
         <v>8102</v>
       </c>
+      <c r="D42">
+        <v>26728</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
@@ -842,6 +970,9 @@
       <c r="C43">
         <v>8157</v>
       </c>
+      <c r="D43">
+        <v>26948</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
@@ -853,6 +984,9 @@
       <c r="C44">
         <v>8180</v>
       </c>
+      <c r="D44">
+        <v>26572</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
@@ -864,6 +998,9 @@
       <c r="C45">
         <v>8203</v>
       </c>
+      <c r="D45">
+        <v>27086</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
@@ -875,6 +1012,9 @@
       <c r="C46">
         <v>8168</v>
       </c>
+      <c r="D46">
+        <v>28872</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
@@ -886,6 +1026,9 @@
       <c r="C47">
         <v>8239</v>
       </c>
+      <c r="D47">
+        <v>28500</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
@@ -897,6 +1040,9 @@
       <c r="C48">
         <v>8280</v>
       </c>
+      <c r="D48">
+        <v>28654</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
@@ -908,6 +1054,9 @@
       <c r="C49">
         <v>8298</v>
       </c>
+      <c r="D49">
+        <v>28706</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
@@ -919,6 +1068,9 @@
       <c r="C50">
         <v>8301</v>
       </c>
+      <c r="D50">
+        <v>29591</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
@@ -930,6 +1082,9 @@
       <c r="C51">
         <v>8307</v>
       </c>
+      <c r="D51">
+        <v>31970</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
@@ -941,6 +1096,9 @@
       <c r="C52">
         <v>8315</v>
       </c>
+      <c r="D52">
+        <v>31210</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
@@ -952,6 +1110,9 @@
       <c r="C53">
         <v>8332</v>
       </c>
+      <c r="D53">
+        <v>32781</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
@@ -963,6 +1124,9 @@
       <c r="C54">
         <v>8343</v>
       </c>
+      <c r="D54">
+        <v>33928</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
@@ -974,6 +1138,9 @@
       <c r="C55">
         <v>8364</v>
       </c>
+      <c r="D55">
+        <v>33493</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
@@ -985,6 +1152,9 @@
       <c r="C56">
         <v>8390</v>
       </c>
+      <c r="D56">
+        <v>34619</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
@@ -996,6 +1166,9 @@
       <c r="C57">
         <v>8403</v>
       </c>
+      <c r="D57">
+        <v>33516</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
@@ -1007,6 +1180,9 @@
       <c r="C58">
         <v>8481</v>
       </c>
+      <c r="D58">
+        <v>32970</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
@@ -1018,6 +1194,9 @@
       <c r="C59">
         <v>8529</v>
       </c>
+      <c r="D59">
+        <v>33406</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
@@ -1029,6 +1208,9 @@
       <c r="C60">
         <v>8553</v>
       </c>
+      <c r="D60">
+        <v>32725</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
@@ -1040,6 +1222,9 @@
       <c r="C61">
         <v>8572</v>
       </c>
+      <c r="D61">
+        <v>35521</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
@@ -1051,6 +1236,9 @@
       <c r="C62">
         <v>8610</v>
       </c>
+      <c r="D62">
+        <v>41335</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
@@ -1062,6 +1250,9 @@
       <c r="C63">
         <v>8699</v>
       </c>
+      <c r="D63">
+        <v>37410</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
@@ -1073,6 +1264,9 @@
       <c r="C64">
         <v>8710</v>
       </c>
+      <c r="D64">
+        <v>34716</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
@@ -1084,6 +1278,9 @@
       <c r="C65">
         <v>8742</v>
       </c>
+      <c r="D65">
+        <v>36290</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
@@ -1095,6 +1292,9 @@
       <c r="C66">
         <v>8776</v>
       </c>
+      <c r="D66">
+        <v>35558</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
@@ -1106,6 +1306,9 @@
       <c r="C67">
         <v>8736</v>
       </c>
+      <c r="D67">
+        <v>34441</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
@@ -1117,6 +1320,9 @@
       <c r="C68">
         <v>8813</v>
       </c>
+      <c r="D68">
+        <v>36438</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
@@ -1128,6 +1334,9 @@
       <c r="C69">
         <v>8801</v>
       </c>
+      <c r="D69">
+        <v>37002</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
@@ -1139,6 +1348,9 @@
       <c r="C70">
         <v>8745</v>
       </c>
+      <c r="D70">
+        <v>37525</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
@@ -1150,6 +1362,9 @@
       <c r="C71">
         <v>8814</v>
       </c>
+      <c r="D71">
+        <v>38500</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
@@ -1161,6 +1376,9 @@
       <c r="C72">
         <v>8816</v>
       </c>
+      <c r="D72">
+        <v>38905</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
@@ -1172,6 +1390,9 @@
       <c r="C73">
         <v>8844</v>
       </c>
+      <c r="D73">
+        <v>41257</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
@@ -1183,6 +1404,9 @@
       <c r="C74">
         <v>8871</v>
       </c>
+      <c r="D74">
+        <v>44144</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
@@ -1194,6 +1418,9 @@
       <c r="C75">
         <v>8888</v>
       </c>
+      <c r="D75">
+        <v>41144</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
@@ -1205,6 +1432,9 @@
       <c r="C76">
         <v>8890</v>
       </c>
+      <c r="D76">
+        <v>42374</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
@@ -1216,6 +1446,9 @@
       <c r="C77">
         <v>8882</v>
       </c>
+      <c r="D77">
+        <v>40337</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -1227,6 +1460,9 @@
       <c r="C78">
         <v>8870</v>
       </c>
+      <c r="D78">
+        <v>38743</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
@@ -1238,6 +1474,9 @@
       <c r="C79">
         <v>8854</v>
       </c>
+      <c r="D79">
+        <v>37412</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
@@ -1249,6 +1488,9 @@
       <c r="C80">
         <v>8852</v>
       </c>
+      <c r="D80">
+        <v>36389</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
@@ -1260,6 +1502,9 @@
       <c r="C81">
         <v>8857</v>
       </c>
+      <c r="D81">
+        <v>36455</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
@@ -1271,6 +1516,9 @@
       <c r="C82">
         <v>8826</v>
       </c>
+      <c r="D82">
+        <v>35546</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
@@ -1282,6 +1530,9 @@
       <c r="C83">
         <v>8844</v>
       </c>
+      <c r="D83">
+        <v>34591</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
@@ -1293,6 +1544,9 @@
       <c r="C84">
         <v>8868</v>
       </c>
+      <c r="D84">
+        <v>33919</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
@@ -1304,6 +1558,9 @@
       <c r="C85">
         <v>8871</v>
       </c>
+      <c r="D85">
+        <v>34569</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
@@ -1315,6 +1572,9 @@
       <c r="C86">
         <v>8862</v>
       </c>
+      <c r="D86">
+        <v>34142</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
@@ -1326,6 +1586,9 @@
       <c r="C87">
         <v>8859</v>
       </c>
+      <c r="D87">
+        <v>36495</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
@@ -1337,6 +1600,9 @@
       <c r="C88">
         <v>8861</v>
       </c>
+      <c r="D88">
+        <v>37465</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
@@ -1348,6 +1614,9 @@
       <c r="C89">
         <v>8864</v>
       </c>
+      <c r="D89">
+        <v>37180</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
@@ -1359,6 +1628,9 @@
       <c r="C90">
         <v>8906</v>
       </c>
+      <c r="D90">
+        <v>36543</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
@@ -1370,6 +1642,9 @@
       <c r="C91">
         <v>8952</v>
       </c>
+      <c r="D91">
+        <v>37390</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
@@ -1381,6 +1656,9 @@
       <c r="C92">
         <v>9068</v>
       </c>
+      <c r="D92">
+        <v>36076</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
@@ -1392,6 +1670,9 @@
       <c r="C93">
         <v>9089</v>
       </c>
+      <c r="D93">
+        <v>35377</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
@@ -1403,6 +1684,9 @@
       <c r="C94">
         <v>9141</v>
       </c>
+      <c r="D94">
+        <v>35546</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
@@ -1414,6 +1698,9 @@
       <c r="C95">
         <v>9197</v>
       </c>
+      <c r="D95">
+        <v>35111</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
@@ -1425,6 +1712,9 @@
       <c r="C96">
         <v>9236</v>
       </c>
+      <c r="D96">
+        <v>35434</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
@@ -1436,6 +1726,9 @@
       <c r="C97">
         <v>9260</v>
       </c>
+      <c r="D97">
+        <v>34935</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
@@ -1447,6 +1740,9 @@
       <c r="C98">
         <v>9301</v>
       </c>
+      <c r="D98">
+        <v>33985</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
@@ -1458,6 +1754,9 @@
       <c r="C99">
         <v>9348</v>
       </c>
+      <c r="D99">
+        <v>32261</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
@@ -1469,6 +1768,9 @@
       <c r="C100">
         <v>9396</v>
       </c>
+      <c r="D100">
+        <v>36040</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
@@ -1480,6 +1782,9 @@
       <c r="C101">
         <v>9444</v>
       </c>
+      <c r="D101">
+        <v>41605</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
@@ -1491,6 +1796,9 @@
       <c r="C102">
         <v>9470</v>
       </c>
+      <c r="D102">
+        <v>42549</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
@@ -1502,6 +1810,9 @@
       <c r="C103">
         <v>9484</v>
       </c>
+      <c r="D103">
+        <v>41515</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
@@ -1513,6 +1824,9 @@
       <c r="C104">
         <v>9536</v>
       </c>
+      <c r="D104">
+        <v>43145</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
@@ -1524,6 +1838,9 @@
       <c r="C105">
         <v>9514</v>
       </c>
+      <c r="D105">
+        <v>43837</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
@@ -1535,6 +1852,9 @@
       <c r="C106">
         <v>9427</v>
       </c>
+      <c r="D106">
+        <v>44300</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
@@ -1546,6 +1866,9 @@
       <c r="C107">
         <v>9455</v>
       </c>
+      <c r="D107">
+        <v>44455</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
@@ -1557,6 +1880,9 @@
       <c r="C108">
         <v>9481</v>
       </c>
+      <c r="D108">
+        <v>44981</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
@@ -1568,6 +1894,9 @@
       <c r="C109">
         <v>9512</v>
       </c>
+      <c r="D109">
+        <v>45610</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
@@ -1579,6 +1908,9 @@
       <c r="C110">
         <v>9528</v>
       </c>
+      <c r="D110">
+        <v>41852</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
@@ -1590,6 +1922,9 @@
       <c r="C111">
         <v>9528</v>
       </c>
+      <c r="D111">
+        <v>38870</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
@@ -1601,6 +1936,9 @@
       <c r="C112">
         <v>9538</v>
       </c>
+      <c r="D112">
+        <v>41660</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
@@ -1612,6 +1950,9 @@
       <c r="C113">
         <v>9581</v>
       </c>
+      <c r="D113">
+        <v>43545</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
@@ -1623,6 +1964,9 @@
       <c r="C114">
         <v>9595</v>
       </c>
+      <c r="D114">
+        <v>47372</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
@@ -1634,6 +1978,9 @@
       <c r="C115">
         <v>9637</v>
       </c>
+      <c r="D115">
+        <v>46709</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
@@ -1645,6 +1992,9 @@
       <c r="C116">
         <v>9722</v>
       </c>
+      <c r="D116">
+        <v>48706</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
@@ -1656,6 +2006,9 @@
       <c r="C117">
         <v>9744</v>
       </c>
+      <c r="D117">
+        <v>49149</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
@@ -1667,6 +2020,9 @@
       <c r="C118">
         <v>9666</v>
       </c>
+      <c r="D118">
+        <v>50176</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
@@ -1678,6 +2034,9 @@
       <c r="C119">
         <v>9679</v>
       </c>
+      <c r="D119">
+        <v>53517</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
@@ -1689,6 +2048,9 @@
       <c r="C120">
         <v>9697</v>
       </c>
+      <c r="D120">
+        <v>51791</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
@@ -1700,6 +2062,9 @@
       <c r="C121">
         <v>9716</v>
       </c>
+      <c r="D121">
+        <v>52519</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
@@ -1711,6 +2076,9 @@
       <c r="C122">
         <v>9738</v>
       </c>
+      <c r="D122">
+        <v>57457</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
@@ -1722,6 +2090,9 @@
       <c r="C123">
         <v>9742</v>
       </c>
+      <c r="D123">
+        <v>55048</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
@@ -1733,6 +2104,9 @@
       <c r="C124">
         <v>9744</v>
       </c>
+      <c r="D124">
+        <v>55298</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
@@ -1744,6 +2118,9 @@
       <c r="C125">
         <v>9723</v>
       </c>
+      <c r="D125">
+        <v>53993</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
@@ -1755,6 +2132,9 @@
       <c r="C126">
         <v>9758</v>
       </c>
+      <c r="D126">
+        <v>54164</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
@@ -1766,6 +2146,9 @@
       <c r="C127">
         <v>9767</v>
       </c>
+      <c r="D127">
+        <v>54179</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
@@ -1777,6 +2160,9 @@
       <c r="C128">
         <v>9775</v>
       </c>
+      <c r="D128">
+        <v>52213</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
@@ -1788,6 +2174,9 @@
       <c r="C129">
         <v>9803</v>
       </c>
+      <c r="D129">
+        <v>53053</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
@@ -1799,6 +2188,9 @@
       <c r="C130">
         <v>9769</v>
       </c>
+      <c r="D130">
+        <v>53125</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
@@ -1810,6 +2202,9 @@
       <c r="C131">
         <v>9802</v>
       </c>
+      <c r="D131">
+        <v>53282</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
@@ -1821,6 +2216,9 @@
       <c r="C132">
         <v>9799</v>
       </c>
+      <c r="D132">
+        <v>52602</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
@@ -1832,6 +2230,9 @@
       <c r="C133">
         <v>9778</v>
       </c>
+      <c r="D133">
+        <v>57259</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
@@ -1843,6 +2244,9 @@
       <c r="C134">
         <v>9764</v>
       </c>
+      <c r="D134">
+        <v>61312</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
@@ -1854,6 +2258,9 @@
       <c r="C135">
         <v>9761</v>
       </c>
+      <c r="D135">
+        <v>59109</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
@@ -1865,6 +2272,9 @@
       <c r="C136">
         <v>9726</v>
       </c>
+      <c r="D136">
+        <v>61031</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
@@ -1876,6 +2286,9 @@
       <c r="C137">
         <v>9713</v>
       </c>
+      <c r="D137">
+        <v>55915</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
@@ -1887,6 +2300,9 @@
       <c r="C138">
         <v>9660</v>
       </c>
+      <c r="D138">
+        <v>53342</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
@@ -1898,6 +2314,9 @@
       <c r="C139">
         <v>9622</v>
       </c>
+      <c r="D139">
+        <v>52329</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
@@ -1909,6 +2328,9 @@
       <c r="C140">
         <v>9625</v>
       </c>
+      <c r="D140">
+        <v>51998</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
@@ -1920,6 +2342,9 @@
       <c r="C141">
         <v>9551</v>
       </c>
+      <c r="D141">
+        <v>51711</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
@@ -1931,6 +2356,9 @@
       <c r="C142">
         <v>9467</v>
       </c>
+      <c r="D142">
+        <v>52423</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
@@ -1942,6 +2370,9 @@
       <c r="C143">
         <v>9497</v>
       </c>
+      <c r="D143">
+        <v>53089</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
@@ -1953,6 +2384,9 @@
       <c r="C144">
         <v>9514</v>
       </c>
+      <c r="D144">
+        <v>54279</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
@@ -1964,6 +2398,9 @@
       <c r="C145">
         <v>9510</v>
       </c>
+      <c r="D145">
+        <v>55573</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
@@ -1975,6 +2412,9 @@
       <c r="C146">
         <v>9493</v>
       </c>
+      <c r="D146">
+        <v>50615</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
@@ -1986,6 +2426,9 @@
       <c r="C147">
         <v>9473</v>
       </c>
+      <c r="D147">
+        <v>51849</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
@@ -1997,6 +2440,9 @@
       <c r="C148">
         <v>9487</v>
       </c>
+      <c r="D148">
+        <v>53368</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
@@ -2008,6 +2454,9 @@
       <c r="C149">
         <v>9494</v>
       </c>
+      <c r="D149">
+        <v>52455</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
@@ -2019,6 +2468,9 @@
       <c r="C150">
         <v>9503</v>
       </c>
+      <c r="D150">
+        <v>52514</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
@@ -2030,6 +2482,9 @@
       <c r="C151">
         <v>9490</v>
       </c>
+      <c r="D151">
+        <v>51579</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
@@ -2041,6 +2496,9 @@
       <c r="C152">
         <v>9389</v>
       </c>
+      <c r="D152">
+        <v>51154</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
@@ -2052,6 +2510,9 @@
       <c r="C153">
         <v>9420</v>
       </c>
+      <c r="D153">
+        <v>53079</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
@@ -2063,6 +2524,9 @@
       <c r="C154">
         <v>9420</v>
       </c>
+      <c r="D154">
+        <v>53226</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
@@ -2074,6 +2538,9 @@
       <c r="C155">
         <v>9430</v>
       </c>
+      <c r="D155">
+        <v>55129</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
@@ -2085,6 +2552,9 @@
       <c r="C156">
         <v>9441</v>
       </c>
+      <c r="D156">
+        <v>56389</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
@@ -2096,6 +2566,9 @@
       <c r="C157">
         <v>9440</v>
       </c>
+      <c r="D157">
+        <v>52778</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
@@ -2107,6 +2580,9 @@
       <c r="C158">
         <v>9448</v>
       </c>
+      <c r="D158">
+        <v>56107</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
@@ -2118,6 +2594,9 @@
       <c r="C159">
         <v>9445</v>
       </c>
+      <c r="D159">
+        <v>52365</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
@@ -2129,6 +2608,9 @@
       <c r="C160">
         <v>9449</v>
       </c>
+      <c r="D160">
+        <v>49563</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
@@ -2140,6 +2622,9 @@
       <c r="C161">
         <v>9434</v>
       </c>
+      <c r="D161">
+        <v>49122</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
@@ -2151,6 +2636,9 @@
       <c r="C162">
         <v>9449</v>
       </c>
+      <c r="D162">
+        <v>52554</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
@@ -2162,6 +2650,9 @@
       <c r="C163">
         <v>9453</v>
       </c>
+      <c r="D163">
+        <v>52482</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
@@ -2173,6 +2664,9 @@
       <c r="C164">
         <v>9434</v>
       </c>
+      <c r="D164">
+        <v>52606</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
@@ -2184,6 +2678,9 @@
       <c r="C165">
         <v>9428</v>
       </c>
+      <c r="D165">
+        <v>55098</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
@@ -2195,6 +2692,9 @@
       <c r="C166">
         <v>9437</v>
       </c>
+      <c r="D166">
+        <v>53283</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
@@ -2206,6 +2706,9 @@
       <c r="C167">
         <v>9390</v>
       </c>
+      <c r="D167">
+        <v>52916</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
@@ -2217,6 +2720,9 @@
       <c r="C168">
         <v>9407</v>
       </c>
+      <c r="D168">
+        <v>53598</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
@@ -2228,6 +2734,9 @@
       <c r="C169">
         <v>9408</v>
       </c>
+      <c r="D169">
+        <v>53233</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
@@ -2239,6 +2748,9 @@
       <c r="C170">
         <v>9411</v>
       </c>
+      <c r="D170">
+        <v>54076</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
@@ -2250,6 +2762,9 @@
       <c r="C171">
         <v>9414</v>
       </c>
+      <c r="D171">
+        <v>56660</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
@@ -2261,6 +2776,9 @@
       <c r="C172">
         <v>9411</v>
       </c>
+      <c r="D172">
+        <v>56521</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
@@ -2272,6 +2790,9 @@
       <c r="C173">
         <v>9440</v>
       </c>
+      <c r="D173">
+        <v>56013</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
@@ -2283,6 +2804,9 @@
       <c r="C174">
         <v>9446</v>
       </c>
+      <c r="D174">
+        <v>57049</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
@@ -2294,6 +2818,9 @@
       <c r="C175">
         <v>9450</v>
       </c>
+      <c r="D175">
+        <v>59086</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
@@ -2305,6 +2832,9 @@
       <c r="C176">
         <v>9483</v>
       </c>
+      <c r="D176">
+        <v>60687</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
@@ -2316,6 +2846,9 @@
       <c r="C177">
         <v>9511</v>
       </c>
+      <c r="D177">
+        <v>59339</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
@@ -2327,6 +2860,9 @@
       <c r="C178">
         <v>9533</v>
       </c>
+      <c r="D178">
+        <v>59705</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
@@ -2338,6 +2874,9 @@
       <c r="C179">
         <v>9552</v>
       </c>
+      <c r="D179">
+        <v>61808</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
@@ -2349,6 +2888,9 @@
       <c r="C180">
         <v>9573</v>
       </c>
+      <c r="D180">
+        <v>60124</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
@@ -2360,6 +2902,9 @@
       <c r="C181">
         <v>9540</v>
       </c>
+      <c r="D181">
+        <v>60740</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
@@ -2371,6 +2916,9 @@
       <c r="C182">
         <v>9585</v>
       </c>
+      <c r="D182">
+        <v>61776</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
@@ -2382,6 +2930,9 @@
       <c r="C183">
         <v>9592</v>
       </c>
+      <c r="D183">
+        <v>61571</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
@@ -2393,6 +2944,9 @@
       <c r="C184">
         <v>9610</v>
       </c>
+      <c r="D184">
+        <v>64197</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
@@ -2404,6 +2958,9 @@
       <c r="C185">
         <v>9621</v>
       </c>
+      <c r="D185">
+        <v>63778</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
@@ -2415,6 +2972,9 @@
       <c r="C186">
         <v>9646</v>
       </c>
+      <c r="D186">
+        <v>65962</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2">
@@ -2426,6 +2986,9 @@
       <c r="C187">
         <v>9654</v>
       </c>
+      <c r="D187">
+        <v>67478</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2">
@@ -2437,6 +3000,9 @@
       <c r="C188">
         <v>9754</v>
       </c>
+      <c r="D188">
+        <v>67455</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2">
@@ -2448,6 +3014,9 @@
       <c r="C189">
         <v>9741</v>
       </c>
+      <c r="D189">
+        <v>67070</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2">
@@ -2459,6 +3028,9 @@
       <c r="C190">
         <v>9745</v>
       </c>
+      <c r="D190">
+        <v>67135</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2">
@@ -2470,6 +3042,9 @@
       <c r="C191">
         <v>9751</v>
       </c>
+      <c r="D191">
+        <v>66160</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2">
@@ -2481,6 +3056,9 @@
       <c r="C192">
         <v>9761</v>
       </c>
+      <c r="D192">
+        <v>65745</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2">
@@ -2492,6 +3070,9 @@
       <c r="C193">
         <v>9781</v>
       </c>
+      <c r="D193">
+        <v>67770</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2">
@@ -2503,6 +3084,9 @@
       <c r="C194">
         <v>9791</v>
       </c>
+      <c r="D194">
+        <v>71455</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2">
@@ -2514,6 +3098,9 @@
       <c r="C195">
         <v>9828</v>
       </c>
+      <c r="D195">
+        <v>70093</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2">
@@ -2525,6 +3112,9 @@
       <c r="C196">
         <v>9827</v>
       </c>
+      <c r="D196">
+        <v>70898</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
@@ -2536,6 +3126,9 @@
       <c r="C197">
         <v>9835</v>
       </c>
+      <c r="D197">
+        <v>70965</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2">
@@ -2547,6 +3140,9 @@
       <c r="C198">
         <v>9863</v>
       </c>
+      <c r="D198">
+        <v>72670</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2">
@@ -2558,6 +3154,9 @@
       <c r="C199">
         <v>9865</v>
       </c>
+      <c r="D199">
+        <v>73011</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2">
@@ -2569,6 +3168,9 @@
       <c r="C200">
         <v>9870</v>
       </c>
+      <c r="D200">
+        <v>73743</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2">
@@ -2580,6 +3182,9 @@
       <c r="C201">
         <v>9878</v>
       </c>
+      <c r="D201">
+        <v>74069</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2">
@@ -2591,6 +3196,9 @@
       <c r="C202">
         <v>9972</v>
       </c>
+      <c r="D202">
+        <v>73718</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2">
@@ -2602,6 +3210,9 @@
       <c r="C203">
         <v>10009</v>
       </c>
+      <c r="D203">
+        <v>72471</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
@@ -2613,6 +3224,9 @@
       <c r="C204">
         <v>10032</v>
       </c>
+      <c r="D204">
+        <v>70706</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2">
@@ -2624,6 +3238,9 @@
       <c r="C205">
         <v>10032</v>
       </c>
+      <c r="D205">
+        <v>70191</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2">
@@ -2635,6 +3252,9 @@
       <c r="C206">
         <v>10042</v>
       </c>
+      <c r="D206">
+        <v>73152</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
@@ -2646,6 +3266,9 @@
       <c r="C207">
         <v>10029</v>
       </c>
+      <c r="D207">
+        <v>76027</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
@@ -2657,6 +3280,9 @@
       <c r="C208">
         <v>10047</v>
       </c>
+      <c r="D208">
+        <v>76691</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
@@ -2668,6 +3294,9 @@
       <c r="C209">
         <v>10082</v>
       </c>
+      <c r="D209">
+        <v>75486</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
@@ -2679,6 +3308,9 @@
       <c r="C210">
         <v>10079</v>
       </c>
+      <c r="D210">
+        <v>74733</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
@@ -2690,6 +3322,9 @@
       <c r="C211">
         <v>10089</v>
       </c>
+      <c r="D211">
+        <v>74858</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
@@ -2701,6 +3336,9 @@
       <c r="C212">
         <v>10104</v>
       </c>
+      <c r="D212">
+        <v>77572</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2">
@@ -2712,6 +3350,9 @@
       <c r="C213">
         <v>10103</v>
       </c>
+      <c r="D213">
+        <v>75615</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
@@ -2723,6 +3364,9 @@
       <c r="C214">
         <v>10070</v>
       </c>
+      <c r="D214">
+        <v>77954</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2">
@@ -2734,6 +3378,9 @@
       <c r="C215">
         <v>10167</v>
       </c>
+      <c r="D215">
+        <v>79082</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2">
@@ -2745,6 +3392,9 @@
       <c r="C216">
         <v>10180</v>
       </c>
+      <c r="D216">
+        <v>77719</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2">
@@ -2756,6 +3406,9 @@
       <c r="C217">
         <v>10207</v>
       </c>
+      <c r="D217">
+        <v>77373</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2">
@@ -2767,6 +3420,9 @@
       <c r="C218">
         <v>10218</v>
       </c>
+      <c r="D218">
+        <v>77050</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2">
@@ -2778,6 +3434,9 @@
       <c r="C219">
         <v>10242</v>
       </c>
+      <c r="D219">
+        <v>77978</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2">
@@ -2789,6 +3448,9 @@
       <c r="C220">
         <v>10292</v>
       </c>
+      <c r="D220">
+        <v>83021</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2">
@@ -2800,6 +3462,9 @@
       <c r="C221">
         <v>10290</v>
       </c>
+      <c r="D221">
+        <v>83702</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2">
@@ -2811,6 +3476,9 @@
       <c r="C222">
         <v>10314</v>
       </c>
+      <c r="D222">
+        <v>84483</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2">
@@ -2822,6 +3490,9 @@
       <c r="C223">
         <v>10342</v>
       </c>
+      <c r="D223">
+        <v>81859</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2">
@@ -2833,6 +3504,9 @@
       <c r="C224">
         <v>10306</v>
       </c>
+      <c r="D224">
+        <v>84761</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
@@ -2844,6 +3518,9 @@
       <c r="C225">
         <v>10328</v>
       </c>
+      <c r="D225">
+        <v>80302</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2">
@@ -2855,6 +3532,9 @@
       <c r="C226">
         <v>10391</v>
       </c>
+      <c r="D226">
+        <v>81005</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2">
@@ -2866,6 +3546,9 @@
       <c r="C227">
         <v>10410</v>
       </c>
+      <c r="D227">
+        <v>82532</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2">
@@ -2877,6 +3560,9 @@
       <c r="C228">
         <v>10471</v>
       </c>
+      <c r="D228">
+        <v>83950</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2">
@@ -2888,6 +3574,9 @@
       <c r="C229">
         <v>10459</v>
       </c>
+      <c r="D229">
+        <v>87330</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2">
@@ -2899,6 +3588,9 @@
       <c r="C230">
         <v>10490</v>
       </c>
+      <c r="D230">
+        <v>87336</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2">
@@ -2910,6 +3602,9 @@
       <c r="C231">
         <v>10517</v>
       </c>
+      <c r="D231">
+        <v>84481</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2">
@@ -2921,6 +3616,9 @@
       <c r="C232">
         <v>10525</v>
       </c>
+      <c r="D232">
+        <v>78883</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
@@ -2932,6 +3630,9 @@
       <c r="C233">
         <v>10541</v>
       </c>
+      <c r="D233">
+        <v>86482</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
@@ -2943,6 +3644,9 @@
       <c r="C234">
         <v>10565</v>
       </c>
+      <c r="D234">
+        <v>86901</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2">
@@ -2954,6 +3658,9 @@
       <c r="C235">
         <v>10593</v>
       </c>
+      <c r="D235">
+        <v>83669</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
@@ -2965,6 +3672,9 @@
       <c r="C236">
         <v>10585</v>
       </c>
+      <c r="D236">
+        <v>86266</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2">
@@ -2976,6 +3686,9 @@
       <c r="C237">
         <v>10657</v>
       </c>
+      <c r="D237">
+        <v>84390</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2">
@@ -2987,6 +3700,9 @@
       <c r="C238">
         <v>10680</v>
       </c>
+      <c r="D238">
+        <v>86535</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2">
@@ -2998,6 +3714,9 @@
       <c r="C239">
         <v>10694</v>
       </c>
+      <c r="D239">
+        <v>86622</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2">
@@ -3009,6 +3728,9 @@
       <c r="C240">
         <v>10711</v>
       </c>
+      <c r="D240">
+        <v>89956</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
@@ -3020,6 +3742,9 @@
       <c r="C241">
         <v>10754</v>
       </c>
+      <c r="D241">
+        <v>91497</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2">
@@ -3031,6 +3756,9 @@
       <c r="C242">
         <v>10800</v>
       </c>
+      <c r="D242">
+        <v>93267</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2">
@@ -3042,6 +3770,9 @@
       <c r="C243">
         <v>10810</v>
       </c>
+      <c r="D243">
+        <v>96530</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2">
@@ -3053,6 +3784,9 @@
       <c r="C244">
         <v>10832</v>
       </c>
+      <c r="D244">
+        <v>93368</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2">
@@ -3064,6 +3798,9 @@
       <c r="C245">
         <v>10846</v>
       </c>
+      <c r="D245">
+        <v>92543</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2">
@@ -3075,6 +3812,9 @@
       <c r="C246">
         <v>10878</v>
       </c>
+      <c r="D246">
+        <v>94626</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2">
@@ -3086,6 +3826,9 @@
       <c r="C247">
         <v>10895</v>
       </c>
+      <c r="D247">
+        <v>94252</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2">
@@ -3097,6 +3840,9 @@
       <c r="C248">
         <v>10966</v>
       </c>
+      <c r="D248">
+        <v>95157</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2">
@@ -3108,6 +3854,9 @@
       <c r="C249">
         <v>10962</v>
       </c>
+      <c r="D249">
+        <v>96003</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2">
@@ -3119,6 +3868,9 @@
       <c r="C250">
         <v>10974</v>
       </c>
+      <c r="D250">
+        <v>93756</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2">
@@ -3130,6 +3882,9 @@
       <c r="C251">
         <v>10992</v>
       </c>
+      <c r="D251">
+        <v>98200</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2">
@@ -3141,6 +3896,9 @@
       <c r="C252">
         <v>10999</v>
       </c>
+      <c r="D252">
+        <v>100417</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2">
@@ -3152,6 +3910,9 @@
       <c r="C253">
         <v>11010</v>
       </c>
+      <c r="D253">
+        <v>97806</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2">
@@ -3163,6 +3924,9 @@
       <c r="C254">
         <v>11018</v>
       </c>
+      <c r="D254">
+        <v>89033</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2">
@@ -3174,6 +3938,9 @@
       <c r="C255">
         <v>11029</v>
       </c>
+      <c r="D255">
+        <v>98208</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2">
@@ -3185,6 +3952,9 @@
       <c r="C256">
         <v>11034</v>
       </c>
+      <c r="D256">
+        <v>98520</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2">
@@ -3196,6 +3966,9 @@
       <c r="C257">
         <v>11046</v>
       </c>
+      <c r="D257">
+        <v>96296</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2">
@@ -3207,6 +3980,9 @@
       <c r="C258">
         <v>11047</v>
       </c>
+      <c r="D258">
+        <v>96891</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2">
@@ -3218,6 +3994,9 @@
       <c r="C259">
         <v>11079</v>
       </c>
+      <c r="D259">
+        <v>95199</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2">
@@ -3229,6 +4008,9 @@
       <c r="C260">
         <v>11115</v>
       </c>
+      <c r="D260">
+        <v>95452</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2">
@@ -3240,6 +4022,9 @@
       <c r="C261">
         <v>11100</v>
       </c>
+      <c r="D261">
+        <v>97907</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2">
@@ -3251,6 +4036,9 @@
       <c r="C262">
         <v>11083</v>
       </c>
+      <c r="D262">
+        <v>98620</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2">
@@ -3262,6 +4050,9 @@
       <c r="C263">
         <v>11117</v>
       </c>
+      <c r="D263">
+        <v>100812</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2">
@@ -3273,6 +4064,9 @@
       <c r="C264">
         <v>11141</v>
       </c>
+      <c r="D264">
+        <v>97937</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2">
@@ -3284,6 +4078,9 @@
       <c r="C265">
         <v>11160</v>
       </c>
+      <c r="D265">
+        <v>98914</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2">
@@ -3295,6 +4092,9 @@
       <c r="C266">
         <v>11184</v>
       </c>
+      <c r="D266">
+        <v>103349</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2">
@@ -3306,6 +4106,9 @@
       <c r="C267">
         <v>11195</v>
       </c>
+      <c r="D267">
+        <v>106883</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2">
@@ -3317,6 +4120,9 @@
       <c r="C268">
         <v>11218</v>
       </c>
+      <c r="D268">
+        <v>108874</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2">
@@ -3328,6 +4134,9 @@
       <c r="C269">
         <v>11238</v>
       </c>
+      <c r="D269">
+        <v>104780</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2">
@@ -3339,6 +4148,9 @@
       <c r="C270">
         <v>11237</v>
       </c>
+      <c r="D270">
+        <v>105420</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2">
@@ -3350,6 +4162,9 @@
       <c r="C271">
         <v>11239</v>
       </c>
+      <c r="D271">
+        <v>100138</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2">
@@ -3361,6 +4176,9 @@
       <c r="C272">
         <v>11284</v>
       </c>
+      <c r="D272">
+        <v>100431</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2">
@@ -3372,6 +4190,9 @@
       <c r="C273">
         <v>11348</v>
       </c>
+      <c r="D273">
+        <v>100208</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2">
@@ -3383,6 +4204,9 @@
       <c r="C274">
         <v>11288</v>
       </c>
+      <c r="D274">
+        <v>98102</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2">
@@ -3394,6 +4218,9 @@
       <c r="C275">
         <v>11303</v>
       </c>
+      <c r="D275">
+        <v>97031</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2">
@@ -3405,6 +4232,9 @@
       <c r="C276">
         <v>11322</v>
       </c>
+      <c r="D276">
+        <v>97580</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2">
@@ -3416,6 +4246,9 @@
       <c r="C277">
         <v>11334</v>
       </c>
+      <c r="D277">
+        <v>99456</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2">
@@ -3427,6 +4260,9 @@
       <c r="C278">
         <v>11357</v>
       </c>
+      <c r="D278">
+        <v>99906</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2">
@@ -3438,6 +4274,9 @@
       <c r="C279">
         <v>11368</v>
       </c>
+      <c r="D279">
+        <v>104415</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2">
@@ -3449,6 +4288,9 @@
       <c r="C280">
         <v>11375</v>
       </c>
+      <c r="D280">
+        <v>103164</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2">
@@ -3460,6 +4302,9 @@
       <c r="C281">
         <v>11396</v>
       </c>
+      <c r="D281">
+        <v>110789</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2">
@@ -3471,6 +4316,9 @@
       <c r="C282">
         <v>11405</v>
       </c>
+      <c r="D282">
+        <v>109246</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2">
@@ -3482,6 +4330,9 @@
       <c r="C283">
         <v>11422</v>
       </c>
+      <c r="D283">
+        <v>115851</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2">
@@ -3493,6 +4344,9 @@
       <c r="C284">
         <v>11502</v>
       </c>
+      <c r="D284">
+        <v>114514</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2">
@@ -3504,6 +4358,9 @@
       <c r="C285">
         <v>11470</v>
       </c>
+      <c r="D285">
+        <v>115967</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2">
@@ -3515,6 +4372,9 @@
       <c r="C286">
         <v>11477</v>
       </c>
+      <c r="D286">
+        <v>117893</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2">
@@ -3526,6 +4386,9 @@
       <c r="C287">
         <v>11493</v>
       </c>
+      <c r="D287">
+        <v>112018</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2">
@@ -3537,6 +4400,9 @@
       <c r="C288">
         <v>11519</v>
       </c>
+      <c r="D288">
+        <v>118210</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2">
@@ -3548,6 +4414,9 @@
       <c r="C289">
         <v>11550</v>
       </c>
+      <c r="D289">
+        <v>123859</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2">
@@ -3559,6 +4428,9 @@
       <c r="C290">
         <v>11576</v>
       </c>
+      <c r="D290">
+        <v>112822</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2">
@@ -3570,6 +4442,9 @@
       <c r="C291">
         <v>11584</v>
       </c>
+      <c r="D291">
+        <v>109268</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2">
@@ -3581,6 +4456,9 @@
       <c r="C292">
         <v>11614</v>
       </c>
+      <c r="D292">
+        <v>113319</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2">
@@ -3592,6 +4470,9 @@
       <c r="C293">
         <v>11642</v>
       </c>
+      <c r="D293">
+        <v>110200</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2">
@@ -3603,6 +4484,9 @@
       <c r="C294">
         <v>11681</v>
       </c>
+      <c r="D294">
+        <v>112744</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2">
@@ -3614,6 +4498,9 @@
       <c r="C295">
         <v>11694</v>
       </c>
+      <c r="D295">
+        <v>117691</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2">
@@ -3625,6 +4512,9 @@
       <c r="C296">
         <v>11702</v>
       </c>
+      <c r="D296">
+        <v>119643</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2">
@@ -3636,6 +4526,9 @@
       <c r="C297">
         <v>11699</v>
       </c>
+      <c r="D297">
+        <v>119162</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2">
@@ -3647,6 +4540,9 @@
       <c r="C298">
         <v>11730</v>
       </c>
+      <c r="D298">
+        <v>118021</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2">
@@ -3658,6 +4554,9 @@
       <c r="C299">
         <v>11731</v>
       </c>
+      <c r="D299">
+        <v>118349</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2">
@@ -3669,6 +4568,9 @@
       <c r="C300">
         <v>11755</v>
       </c>
+      <c r="D300">
+        <v>115534</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2">
@@ -3680,6 +4582,9 @@
       <c r="C301">
         <v>11770</v>
       </c>
+      <c r="D301">
+        <v>118000</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2">
@@ -3691,6 +4596,9 @@
       <c r="C302">
         <v>11780</v>
       </c>
+      <c r="D302">
+        <v>117025</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2">
@@ -3702,6 +4610,9 @@
       <c r="C303">
         <v>11786</v>
       </c>
+      <c r="D303">
+        <v>114364</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2">
@@ -3713,6 +4624,9 @@
       <c r="C304">
         <v>11808</v>
       </c>
+      <c r="D304">
+        <v>119157</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2">
@@ -3724,6 +4638,9 @@
       <c r="C305">
         <v>11821</v>
       </c>
+      <c r="D305">
+        <v>121907</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2">
@@ -3735,6 +4652,9 @@
       <c r="C306">
         <v>11818</v>
       </c>
+      <c r="D306">
+        <v>124083</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2">
@@ -3746,6 +4666,9 @@
       <c r="C307">
         <v>11847</v>
       </c>
+      <c r="D307">
+        <v>127313</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2">
@@ -3757,6 +4680,9 @@
       <c r="C308">
         <v>11859</v>
       </c>
+      <c r="D308">
+        <v>121929</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2">
@@ -3768,6 +4694,9 @@
       <c r="C309">
         <v>11865</v>
       </c>
+      <c r="D309">
+        <v>127477</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2">
@@ -3779,6 +4708,9 @@
       <c r="C310">
         <v>11880</v>
       </c>
+      <c r="D310">
+        <v>126314</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2">
@@ -3790,6 +4722,9 @@
       <c r="C311">
         <v>11903</v>
       </c>
+      <c r="D311">
+        <v>130325</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2">
@@ -3801,6 +4736,9 @@
       <c r="C312">
         <v>11926</v>
       </c>
+      <c r="D312">
+        <v>127679</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2">
@@ -3812,6 +4750,9 @@
       <c r="C313">
         <v>11940</v>
       </c>
+      <c r="D313">
+        <v>124714</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2">
@@ -3823,6 +4764,9 @@
       <c r="C314">
         <v>11938</v>
       </c>
+      <c r="D314">
+        <v>130979</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2">
@@ -3834,6 +4778,9 @@
       <c r="C315">
         <v>11954</v>
       </c>
+      <c r="D315">
+        <v>123217</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2">
@@ -3845,6 +4792,9 @@
       <c r="C316">
         <v>12006</v>
       </c>
+      <c r="D316">
+        <v>124342</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2">
@@ -3856,6 +4806,9 @@
       <c r="C317">
         <v>12000</v>
       </c>
+      <c r="D317">
+        <v>131331</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2">
@@ -3867,6 +4820,9 @@
       <c r="C318">
         <v>12022</v>
       </c>
+      <c r="D318">
+        <v>135719</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2">
@@ -3878,6 +4834,9 @@
       <c r="C319">
         <v>12030</v>
       </c>
+      <c r="D319">
+        <v>127966</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2">
@@ -3889,6 +4848,9 @@
       <c r="C320">
         <v>12060</v>
       </c>
+      <c r="D320">
+        <v>131896</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2">
@@ -3900,6 +4862,9 @@
       <c r="C321">
         <v>12034</v>
       </c>
+      <c r="D321">
+        <v>129203</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2">
@@ -3911,6 +4876,9 @@
       <c r="C322">
         <v>12107</v>
       </c>
+      <c r="D322">
+        <v>133746</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2">
@@ -3922,6 +4890,9 @@
       <c r="C323">
         <v>12125</v>
       </c>
+      <c r="D323">
+        <v>137027</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2">
@@ -3933,6 +4904,9 @@
       <c r="C324">
         <v>12138</v>
       </c>
+      <c r="D324">
+        <v>137499</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2">
@@ -3944,6 +4918,9 @@
       <c r="C325">
         <v>12154</v>
       </c>
+      <c r="D325">
+        <v>132390</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2">
@@ -3955,6 +4932,9 @@
       <c r="C326">
         <v>12171</v>
       </c>
+      <c r="D326">
+        <v>130586</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2">
@@ -3966,6 +4946,9 @@
       <c r="C327">
         <v>12183</v>
       </c>
+      <c r="D327">
+        <v>136532</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2">
@@ -3977,6 +4960,9 @@
       <c r="C328">
         <v>12203</v>
       </c>
+      <c r="D328">
+        <v>139297</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2">
@@ -3988,6 +4974,9 @@
       <c r="C329">
         <v>12212</v>
       </c>
+      <c r="D329">
+        <v>138996</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2">
@@ -3999,6 +4988,9 @@
       <c r="C330">
         <v>12211</v>
       </c>
+      <c r="D330">
+        <v>138800</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2">
@@ -4010,6 +5002,9 @@
       <c r="C331">
         <v>12266</v>
       </c>
+      <c r="D331">
+        <v>140642</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2">
@@ -4021,6 +5016,9 @@
       <c r="C332">
         <v>12298</v>
       </c>
+      <c r="D332">
+        <v>143285</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2">
@@ -4032,6 +5030,9 @@
       <c r="C333">
         <v>12259</v>
       </c>
+      <c r="D333">
+        <v>141718</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2">
@@ -4043,6 +5044,9 @@
       <c r="C334">
         <v>12331</v>
       </c>
+      <c r="D334">
+        <v>139153</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2">
@@ -4054,6 +5058,9 @@
       <c r="C335">
         <v>12362</v>
       </c>
+      <c r="D335">
+        <v>142581</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2">
@@ -4065,6 +5072,9 @@
       <c r="C336">
         <v>12379</v>
       </c>
+      <c r="D336">
+        <v>138250</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2">
@@ -4076,6 +5086,9 @@
       <c r="C337">
         <v>12399</v>
       </c>
+      <c r="D337">
+        <v>139477</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2">
@@ -4087,6 +5100,9 @@
       <c r="C338">
         <v>12416</v>
       </c>
+      <c r="D338">
+        <v>135419</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2">
@@ -4098,6 +5114,9 @@
       <c r="C339">
         <v>12444</v>
       </c>
+      <c r="D339">
+        <v>133444</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2">
@@ -4109,6 +5128,9 @@
       <c r="C340">
         <v>12452</v>
       </c>
+      <c r="D340">
+        <v>133062</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2">
@@ -4120,6 +5142,9 @@
       <c r="C341">
         <v>12478</v>
       </c>
+      <c r="D341">
+        <v>136805</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2">
@@ -4131,6 +5156,9 @@
       <c r="C342">
         <v>12512</v>
       </c>
+      <c r="D342">
+        <v>132722</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2">
@@ -4142,6 +5170,9 @@
       <c r="C343">
         <v>12514</v>
       </c>
+      <c r="D343">
+        <v>143927</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2">
@@ -4153,6 +5184,9 @@
       <c r="C344">
         <v>12534</v>
       </c>
+      <c r="D344">
+        <v>144579</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2">
@@ -4164,6 +5198,9 @@
       <c r="C345">
         <v>12552</v>
       </c>
+      <c r="D345">
+        <v>141100</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2">
@@ -4175,6 +5212,9 @@
       <c r="C346">
         <v>12574</v>
       </c>
+      <c r="D346">
+        <v>144909</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2">
@@ -4186,6 +5226,9 @@
       <c r="C347">
         <v>12589</v>
       </c>
+      <c r="D347">
+        <v>144390</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2">
@@ -4197,6 +5240,9 @@
       <c r="C348">
         <v>12617</v>
       </c>
+      <c r="D348">
+        <v>142507</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2">
@@ -4208,6 +5254,9 @@
       <c r="C349">
         <v>12643</v>
       </c>
+      <c r="D349">
+        <v>146407</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2">
@@ -4219,6 +5268,9 @@
       <c r="C350">
         <v>12662</v>
       </c>
+      <c r="D350">
+        <v>146064</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2">
@@ -4230,6 +5282,9 @@
       <c r="C351">
         <v>12699</v>
       </c>
+      <c r="D351">
+        <v>151958</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2">
@@ -4241,6 +5296,9 @@
       <c r="C352">
         <v>12723</v>
       </c>
+      <c r="D352">
+        <v>153469</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2">
@@ -4252,6 +5310,9 @@
       <c r="C353">
         <v>12757</v>
       </c>
+      <c r="D353">
+        <v>153191</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2">
@@ -4263,6 +5324,9 @@
       <c r="C354">
         <v>12774</v>
       </c>
+      <c r="D354">
+        <v>151267</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2">
@@ -4274,6 +5338,9 @@
       <c r="C355">
         <v>12819</v>
       </c>
+      <c r="D355">
+        <v>153088</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2">
@@ -4285,6 +5352,9 @@
       <c r="C356">
         <v>12869</v>
       </c>
+      <c r="D356">
+        <v>155326</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2">
@@ -4296,6 +5366,9 @@
       <c r="C357">
         <v>12889</v>
       </c>
+      <c r="D357">
+        <v>155139</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2">
@@ -4307,6 +5380,9 @@
       <c r="C358">
         <v>12904</v>
       </c>
+      <c r="D358">
+        <v>155931</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2">
@@ -4318,6 +5394,9 @@
       <c r="C359">
         <v>12941</v>
       </c>
+      <c r="D359">
+        <v>156205</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2">
@@ -4329,6 +5408,9 @@
       <c r="C360">
         <v>12970</v>
       </c>
+      <c r="D360">
+        <v>163051</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2">
@@ -4340,6 +5422,9 @@
       <c r="C361">
         <v>13006</v>
       </c>
+      <c r="D361">
+        <v>170840</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2">
@@ -4351,6 +5436,9 @@
       <c r="C362">
         <v>13038</v>
       </c>
+      <c r="D362">
+        <v>170902</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2">
@@ -4362,6 +5450,9 @@
       <c r="C363">
         <v>13038</v>
       </c>
+      <c r="D363">
+        <v>162305</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2">
@@ -4373,6 +5464,9 @@
       <c r="C364">
         <v>13075</v>
       </c>
+      <c r="D364">
+        <v>173122</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2">
@@ -4384,6 +5478,9 @@
       <c r="C365">
         <v>13108</v>
       </c>
+      <c r="D365">
+        <v>169501</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2">
@@ -4395,6 +5492,9 @@
       <c r="C366">
         <v>13124</v>
       </c>
+      <c r="D366">
+        <v>165099</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2">
@@ -4406,6 +5506,9 @@
       <c r="C367">
         <v>13107</v>
       </c>
+      <c r="D367">
+        <v>161002</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2">
@@ -4417,6 +5520,9 @@
       <c r="C368">
         <v>13143</v>
       </c>
+      <c r="D368">
+        <v>158363</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2">
@@ -4428,6 +5534,9 @@
       <c r="C369">
         <v>13175</v>
       </c>
+      <c r="D369">
+        <v>168538</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2">
@@ -4439,6 +5548,9 @@
       <c r="C370">
         <v>13186</v>
       </c>
+      <c r="D370">
+        <v>171534</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2">
@@ -4450,6 +5562,9 @@
       <c r="C371">
         <v>13203</v>
       </c>
+      <c r="D371">
+        <v>170661</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2">
@@ -4461,6 +5576,9 @@
       <c r="C372">
         <v>13214</v>
       </c>
+      <c r="D372">
+        <v>169902</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2">
@@ -4472,6 +5590,9 @@
       <c r="C373">
         <v>13245</v>
       </c>
+      <c r="D373">
+        <v>171287</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2">
@@ -4483,6 +5604,9 @@
       <c r="C374">
         <v>13277</v>
       </c>
+      <c r="D374">
+        <v>172404</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2">
@@ -4494,6 +5618,9 @@
       <c r="C375">
         <v>13315</v>
       </c>
+      <c r="D375">
+        <v>174366</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2">
@@ -4505,6 +5632,9 @@
       <c r="C376">
         <v>13338</v>
       </c>
+      <c r="D376">
+        <v>182464</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2">
@@ -4516,6 +5646,9 @@
       <c r="C377">
         <v>13381</v>
       </c>
+      <c r="D377">
+        <v>186522</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2">
@@ -4527,6 +5660,9 @@
       <c r="C378">
         <v>13396</v>
       </c>
+      <c r="D378">
+        <v>191158</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2">
@@ -4538,6 +5674,9 @@
       <c r="C379">
         <v>13455</v>
       </c>
+      <c r="D379">
+        <v>190147</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2">
@@ -4549,6 +5688,9 @@
       <c r="C380">
         <v>13481</v>
       </c>
+      <c r="D380">
+        <v>189949</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2">
@@ -4560,6 +5702,9 @@
       <c r="C381">
         <v>13504</v>
       </c>
+      <c r="D381">
+        <v>188515</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2">
@@ -4571,6 +5716,9 @@
       <c r="C382">
         <v>13517</v>
       </c>
+      <c r="D382">
+        <v>182884</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2">
@@ -4582,6 +5730,9 @@
       <c r="C383">
         <v>13550</v>
       </c>
+      <c r="D383">
+        <v>191444</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2">
@@ -4593,6 +5744,9 @@
       <c r="C384">
         <v>13590</v>
       </c>
+      <c r="D384">
+        <v>193428</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2">
@@ -4604,6 +5758,9 @@
       <c r="C385">
         <v>13611</v>
       </c>
+      <c r="D385">
+        <v>194241</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2">
@@ -4615,6 +5772,9 @@
       <c r="C386">
         <v>13616</v>
       </c>
+      <c r="D386">
+        <v>201340</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2">
@@ -4626,6 +5786,9 @@
       <c r="C387">
         <v>13636</v>
       </c>
+      <c r="D387">
+        <v>202634</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2">
@@ -4637,6 +5800,9 @@
       <c r="C388">
         <v>13665</v>
       </c>
+      <c r="D388">
+        <v>190096</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2">
@@ -4648,6 +5814,9 @@
       <c r="C389">
         <v>13672</v>
       </c>
+      <c r="D389">
+        <v>192721</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2">
@@ -4659,6 +5828,9 @@
       <c r="C390">
         <v>13708</v>
       </c>
+      <c r="D390">
+        <v>198415</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2">
@@ -4670,6 +5842,9 @@
       <c r="C391">
         <v>13718</v>
       </c>
+      <c r="D391">
+        <v>193246</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2">
@@ -4681,6 +5856,9 @@
       <c r="C392">
         <v>13720</v>
       </c>
+      <c r="D392">
+        <v>196053</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2">
@@ -4692,6 +5870,9 @@
       <c r="C393">
         <v>13758</v>
       </c>
+      <c r="D393">
+        <v>196345</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2">
@@ -4703,6 +5884,9 @@
       <c r="C394">
         <v>13756</v>
       </c>
+      <c r="D394">
+        <v>196933</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2">
@@ -4714,6 +5898,9 @@
       <c r="C395">
         <v>13766</v>
       </c>
+      <c r="D395">
+        <v>197681</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2">
@@ -4725,6 +5912,9 @@
       <c r="C396">
         <v>13777</v>
       </c>
+      <c r="D396">
+        <v>197634</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2">
@@ -4736,6 +5926,9 @@
       <c r="C397">
         <v>13782</v>
       </c>
+      <c r="D397">
+        <v>203997</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2">
@@ -4747,6 +5940,9 @@
       <c r="C398">
         <v>13803</v>
       </c>
+      <c r="D398">
+        <v>201921</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2">
@@ -4758,6 +5954,9 @@
       <c r="C399">
         <v>13803</v>
       </c>
+      <c r="D399">
+        <v>198453</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2">
@@ -4769,6 +5968,9 @@
       <c r="C400">
         <v>13797</v>
       </c>
+      <c r="D400">
+        <v>191858</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2">
@@ -4780,6 +5982,9 @@
       <c r="C401">
         <v>13809</v>
       </c>
+      <c r="D401">
+        <v>193432</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2">
@@ -4791,6 +5996,9 @@
       <c r="C402">
         <v>13805</v>
       </c>
+      <c r="D402">
+        <v>194359</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2">
@@ -4802,6 +6010,9 @@
       <c r="C403">
         <v>13846</v>
       </c>
+      <c r="D403">
+        <v>199783</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2">
@@ -4813,6 +6024,9 @@
       <c r="C404">
         <v>13892</v>
       </c>
+      <c r="D404">
+        <v>199569</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2">
@@ -4824,6 +6038,9 @@
       <c r="C405">
         <v>13830</v>
       </c>
+      <c r="D405">
+        <v>201665</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2">
@@ -4835,6 +6052,9 @@
       <c r="C406">
         <v>13775</v>
       </c>
+      <c r="D406">
+        <v>200824</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2">
@@ -4846,6 +6066,9 @@
       <c r="C407">
         <v>13829</v>
       </c>
+      <c r="D407">
+        <v>204044</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2">
@@ -4857,6 +6080,9 @@
       <c r="C408">
         <v>13819</v>
       </c>
+      <c r="D408">
+        <v>197529</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2">
@@ -4868,6 +6094,9 @@
       <c r="C409">
         <v>13825</v>
       </c>
+      <c r="D409">
+        <v>196447</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2">
@@ -4879,6 +6108,9 @@
       <c r="C410">
         <v>13841</v>
       </c>
+      <c r="D410">
+        <v>195223</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2">
@@ -4890,6 +6122,9 @@
       <c r="C411">
         <v>13852</v>
       </c>
+      <c r="D411">
+        <v>193810</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2">
@@ -4901,6 +6136,9 @@
       <c r="C412">
         <v>13884</v>
       </c>
+      <c r="D412">
+        <v>202934</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2">
@@ -4912,6 +6150,9 @@
       <c r="C413">
         <v>13888</v>
       </c>
+      <c r="D413">
+        <v>202403</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2">
@@ -4923,6 +6164,9 @@
       <c r="C414">
         <v>13913</v>
       </c>
+      <c r="D414">
+        <v>199791</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2">
@@ -4934,6 +6178,9 @@
       <c r="C415">
         <v>13893</v>
       </c>
+      <c r="D415">
+        <v>204875</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2">
@@ -4945,6 +6192,9 @@
       <c r="C416">
         <v>13895</v>
       </c>
+      <c r="D416">
+        <v>205463</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2">
@@ -4956,6 +6206,9 @@
       <c r="C417">
         <v>13912</v>
       </c>
+      <c r="D417">
+        <v>201765</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2">
@@ -4967,6 +6220,9 @@
       <c r="C418">
         <v>13921</v>
       </c>
+      <c r="D418">
+        <v>199756</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2">
@@ -4978,6 +6234,9 @@
       <c r="C419">
         <v>13939</v>
       </c>
+      <c r="D419">
+        <v>202016</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2">
@@ -4989,6 +6248,9 @@
       <c r="C420">
         <v>13967</v>
       </c>
+      <c r="D420">
+        <v>207005</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2">
@@ -5000,6 +6262,9 @@
       <c r="C421">
         <v>13970</v>
       </c>
+      <c r="D421">
+        <v>205772</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2">
@@ -5011,6 +6276,9 @@
       <c r="C422">
         <v>13989</v>
       </c>
+      <c r="D422">
+        <v>202979</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2">
@@ -5022,6 +6290,9 @@
       <c r="C423">
         <v>14001</v>
       </c>
+      <c r="D423">
+        <v>208340</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2">
@@ -5033,6 +6304,9 @@
       <c r="C424">
         <v>13994</v>
       </c>
+      <c r="D424">
+        <v>210287</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2">
@@ -5044,6 +6318,9 @@
       <c r="C425">
         <v>14010</v>
       </c>
+      <c r="D425">
+        <v>211960</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2">
@@ -5055,6 +6332,9 @@
       <c r="C426">
         <v>14025</v>
       </c>
+      <c r="D426">
+        <v>217504</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2">
@@ -5066,6 +6346,9 @@
       <c r="C427">
         <v>14001</v>
       </c>
+      <c r="D427">
+        <v>218374</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2">
@@ -5077,6 +6360,9 @@
       <c r="C428">
         <v>14089</v>
       </c>
+      <c r="D428">
+        <v>218197</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2">
@@ -5088,6 +6374,9 @@
       <c r="C429">
         <v>14094</v>
       </c>
+      <c r="D429">
+        <v>219488</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2">
@@ -5099,6 +6388,9 @@
       <c r="C430">
         <v>14073</v>
       </c>
+      <c r="D430">
+        <v>220538</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2">
@@ -5110,6 +6402,9 @@
       <c r="C431">
         <v>14057</v>
       </c>
+      <c r="D431">
+        <v>220663</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2">
@@ -5121,6 +6416,9 @@
       <c r="C432">
         <v>14075</v>
       </c>
+      <c r="D432">
+        <v>222165</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2">
@@ -5132,6 +6430,9 @@
       <c r="C433">
         <v>14085</v>
       </c>
+      <c r="D433">
+        <v>225463</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2">
@@ -5143,6 +6444,9 @@
       <c r="C434">
         <v>14087</v>
       </c>
+      <c r="D434">
+        <v>226123</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2">
@@ -5154,6 +6458,9 @@
       <c r="C435">
         <v>14096</v>
       </c>
+      <c r="D435">
+        <v>229966</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2">
@@ -5165,6 +6472,9 @@
       <c r="C436">
         <v>14111</v>
       </c>
+      <c r="D436">
+        <v>234264</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2">
@@ -5176,6 +6486,9 @@
       <c r="C437">
         <v>14122</v>
       </c>
+      <c r="D437">
+        <v>237383</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2">
@@ -5187,6 +6500,9 @@
       <c r="C438">
         <v>14120</v>
       </c>
+      <c r="D438">
+        <v>236741</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2">
@@ -5198,6 +6514,9 @@
       <c r="C439">
         <v>14117</v>
       </c>
+      <c r="D439">
+        <v>241184</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2">
@@ -5209,6 +6528,9 @@
       <c r="C440">
         <v>14158</v>
       </c>
+      <c r="D440">
+        <v>240936</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2">
@@ -5220,6 +6542,9 @@
       <c r="C441">
         <v>14194</v>
       </c>
+      <c r="D441">
+        <v>238097</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2">
@@ -5231,6 +6556,9 @@
       <c r="C442">
         <v>14251</v>
       </c>
+      <c r="D442">
+        <v>237862</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2">
@@ -5242,6 +6570,9 @@
       <c r="C443">
         <v>14240</v>
       </c>
+      <c r="D443">
+        <v>236557</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2">
@@ -5253,6 +6584,9 @@
       <c r="C444">
         <v>14254</v>
       </c>
+      <c r="D444">
+        <v>241578</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2">
@@ -5264,6 +6598,9 @@
       <c r="C445">
         <v>14260</v>
       </c>
+      <c r="D445">
+        <v>250734</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2">
@@ -5275,6 +6612,9 @@
       <c r="C446">
         <v>14277</v>
       </c>
+      <c r="D446">
+        <v>259245</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2">
@@ -5286,6 +6626,9 @@
       <c r="C447">
         <v>14285</v>
       </c>
+      <c r="D447">
+        <v>255926</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2">
@@ -5297,6 +6640,9 @@
       <c r="C448">
         <v>14300</v>
       </c>
+      <c r="D448">
+        <v>259592</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2">
@@ -5308,6 +6654,9 @@
       <c r="C449">
         <v>14322</v>
       </c>
+      <c r="D449">
+        <v>262796</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2">
@@ -5319,6 +6668,9 @@
       <c r="C450">
         <v>14339</v>
       </c>
+      <c r="D450">
+        <v>268870</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2">
@@ -5330,6 +6682,9 @@
       <c r="C451">
         <v>14347</v>
       </c>
+      <c r="D451">
+        <v>266945</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2">
@@ -5341,6 +6696,9 @@
       <c r="C452">
         <v>14325</v>
       </c>
+      <c r="D452">
+        <v>267553</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2">
@@ -5352,6 +6710,9 @@
       <c r="C453">
         <v>14378</v>
       </c>
+      <c r="D453">
+        <v>271127</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2">
@@ -5363,6 +6724,9 @@
       <c r="C454">
         <v>14405</v>
       </c>
+      <c r="D454">
+        <v>276241</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2">
@@ -5374,6 +6738,9 @@
       <c r="C455">
         <v>14431</v>
       </c>
+      <c r="D455">
+        <v>275377</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2">
@@ -5385,6 +6752,9 @@
       <c r="C456">
         <v>14453</v>
       </c>
+      <c r="D456">
+        <v>277876</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2">
@@ -5396,6 +6766,9 @@
       <c r="C457">
         <v>14481</v>
       </c>
+      <c r="D457">
+        <v>276111</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2">
@@ -5407,6 +6780,9 @@
       <c r="C458">
         <v>14502</v>
       </c>
+      <c r="D458">
+        <v>272191</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2">
@@ -5418,6 +6794,9 @@
       <c r="C459">
         <v>14525</v>
       </c>
+      <c r="D459">
+        <v>277462</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2">
@@ -5429,6 +6808,9 @@
       <c r="C460">
         <v>14538</v>
       </c>
+      <c r="D460">
+        <v>284462</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2">
@@ -5440,6 +6822,9 @@
       <c r="C461">
         <v>14538</v>
       </c>
+      <c r="D461">
+        <v>281292</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2">
@@ -5451,6 +6836,9 @@
       <c r="C462">
         <v>14564</v>
       </c>
+      <c r="D462">
+        <v>282825</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2">
@@ -5462,6 +6850,9 @@
       <c r="C463">
         <v>14579</v>
       </c>
+      <c r="D463">
+        <v>285106</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2">
@@ -5473,6 +6864,9 @@
       <c r="C464">
         <v>14610</v>
       </c>
+      <c r="D464">
+        <v>286745</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2">
@@ -5484,6 +6878,9 @@
       <c r="C465">
         <v>14587</v>
       </c>
+      <c r="D465">
+        <v>289323</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2">
@@ -5495,6 +6892,9 @@
       <c r="C466">
         <v>14585</v>
       </c>
+      <c r="D466">
+        <v>285213</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2">
@@ -5506,6 +6906,9 @@
       <c r="C467">
         <v>14595</v>
       </c>
+      <c r="D467">
+        <v>289699</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2">
@@ -5517,6 +6920,9 @@
       <c r="C468">
         <v>14588</v>
       </c>
+      <c r="D468">
+        <v>290817</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2">
@@ -5528,6 +6934,9 @@
       <c r="C469">
         <v>14590</v>
       </c>
+      <c r="D469">
+        <v>284486</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2">
@@ -5539,6 +6948,9 @@
       <c r="C470">
         <v>14587</v>
       </c>
+      <c r="D470">
+        <v>280999</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2">
@@ -5550,6 +6962,9 @@
       <c r="C471">
         <v>14591</v>
       </c>
+      <c r="D471">
+        <v>291735</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2">
@@ -5561,6 +6976,9 @@
       <c r="C472">
         <v>14583</v>
       </c>
+      <c r="D472">
+        <v>296040</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2">
@@ -5572,6 +6990,9 @@
       <c r="C473">
         <v>14573</v>
       </c>
+      <c r="D473">
+        <v>292743</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2">
@@ -5583,6 +7004,9 @@
       <c r="C474">
         <v>14570</v>
       </c>
+      <c r="D474">
+        <v>290892</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2">
@@ -5594,6 +7018,9 @@
       <c r="C475">
         <v>14586</v>
       </c>
+      <c r="D475">
+        <v>293036</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2">
@@ -5605,6 +7032,9 @@
       <c r="C476">
         <v>14573</v>
       </c>
+      <c r="D476">
+        <v>293671</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2">
@@ -5616,6 +7046,9 @@
       <c r="C477">
         <v>14542</v>
       </c>
+      <c r="D477">
+        <v>285951</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2">
@@ -5627,6 +7060,9 @@
       <c r="C478">
         <v>14481</v>
       </c>
+      <c r="D478">
+        <v>282482</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2">
@@ -5638,6 +7074,9 @@
       <c r="C479">
         <v>14523</v>
       </c>
+      <c r="D479">
+        <v>278903</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2">
@@ -5649,6 +7088,9 @@
       <c r="C480">
         <v>14539</v>
       </c>
+      <c r="D480">
+        <v>273764</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2">
@@ -5660,6 +7102,9 @@
       <c r="C481">
         <v>14501</v>
       </c>
+      <c r="D481">
+        <v>270236</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2">
@@ -5671,6 +7116,9 @@
       <c r="C482">
         <v>14486</v>
       </c>
+      <c r="D482">
+        <v>270170</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2">
@@ -5682,6 +7130,9 @@
       <c r="C483">
         <v>14457</v>
       </c>
+      <c r="D483">
+        <v>262983</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2">
@@ -5693,6 +7144,9 @@
       <c r="C484">
         <v>14455</v>
       </c>
+      <c r="D484">
+        <v>270913</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2">
@@ -5704,6 +7158,9 @@
       <c r="C485">
         <v>14449</v>
       </c>
+      <c r="D485">
+        <v>275035</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2">
@@ -5715,6 +7172,9 @@
       <c r="C486">
         <v>14445</v>
       </c>
+      <c r="D486">
+        <v>274410</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2">
@@ -5726,6 +7186,9 @@
       <c r="C487">
         <v>14408</v>
       </c>
+      <c r="D487">
+        <v>274135</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2">
@@ -5737,6 +7200,9 @@
       <c r="C488">
         <v>14382</v>
       </c>
+      <c r="D488">
+        <v>271240</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2">
@@ -5748,6 +7214,9 @@
       <c r="C489">
         <v>14345</v>
       </c>
+      <c r="D489">
+        <v>278247</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2">
@@ -5759,6 +7228,9 @@
       <c r="C490">
         <v>14256</v>
       </c>
+      <c r="D490">
+        <v>282210</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2">
@@ -5770,6 +7242,9 @@
       <c r="C491">
         <v>14292</v>
       </c>
+      <c r="D491">
+        <v>275523</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2">
@@ -5781,6 +7256,9 @@
       <c r="C492">
         <v>14282</v>
       </c>
+      <c r="D492">
+        <v>269476</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2">
@@ -5792,6 +7270,9 @@
       <c r="C493">
         <v>14263</v>
       </c>
+      <c r="D493">
+        <v>264720</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2">
@@ -5803,6 +7284,9 @@
       <c r="C494">
         <v>14246</v>
       </c>
+      <c r="D494">
+        <v>260119</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2">
@@ -5814,6 +7298,9 @@
       <c r="C495">
         <v>14233</v>
       </c>
+      <c r="D495">
+        <v>256141</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2">
@@ -5825,6 +7312,9 @@
       <c r="C496">
         <v>14219</v>
       </c>
+      <c r="D496">
+        <v>257971</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2">
@@ -5836,6 +7326,9 @@
       <c r="C497">
         <v>14223</v>
       </c>
+      <c r="D497">
+        <v>252322</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2">
@@ -5847,6 +7340,9 @@
       <c r="C498">
         <v>14175</v>
       </c>
+      <c r="D498">
+        <v>250134</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2">
@@ -5858,6 +7354,9 @@
       <c r="C499">
         <v>14225</v>
       </c>
+      <c r="D499">
+        <v>252761</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2">
@@ -5869,6 +7368,9 @@
       <c r="C500">
         <v>14129</v>
       </c>
+      <c r="D500">
+        <v>248331</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2">
@@ -5880,6 +7382,9 @@
       <c r="C501">
         <v>14088</v>
       </c>
+      <c r="D501">
+        <v>253923</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2">
@@ -5891,6 +7396,9 @@
       <c r="C502">
         <v>14065</v>
       </c>
+      <c r="D502">
+        <v>257392</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2">
@@ -5902,6 +7410,9 @@
       <c r="C503">
         <v>14092</v>
       </c>
+      <c r="D503">
+        <v>255891</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2">
@@ -5913,6 +7424,9 @@
       <c r="C504">
         <v>14079</v>
       </c>
+      <c r="D504">
+        <v>258673</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2">
@@ -5924,6 +7438,9 @@
       <c r="C505">
         <v>14071</v>
       </c>
+      <c r="D505">
+        <v>259574</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2">
@@ -5935,6 +7452,9 @@
       <c r="C506">
         <v>14068</v>
       </c>
+      <c r="D506">
+        <v>256906</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2">
@@ -5946,6 +7466,9 @@
       <c r="C507">
         <v>14071</v>
       </c>
+      <c r="D507">
+        <v>255520</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2">
@@ -5957,6 +7480,9 @@
       <c r="C508">
         <v>14064</v>
       </c>
+      <c r="D508">
+        <v>251159</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2">
@@ -5968,6 +7494,9 @@
       <c r="C509">
         <v>14050</v>
       </c>
+      <c r="D509">
+        <v>251389</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2">
@@ -5979,6 +7508,9 @@
       <c r="C510">
         <v>14036</v>
       </c>
+      <c r="D510">
+        <v>253816</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2">
@@ -5990,6 +7522,9 @@
       <c r="C511">
         <v>14047</v>
       </c>
+      <c r="D511">
+        <v>258591</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2">
@@ -6001,6 +7536,9 @@
       <c r="C512">
         <v>14043</v>
       </c>
+      <c r="D512">
+        <v>254518</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2">
@@ -6012,6 +7550,9 @@
       <c r="C513">
         <v>14033</v>
       </c>
+      <c r="D513">
+        <v>253500</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2">
@@ -6023,6 +7564,9 @@
       <c r="C514">
         <v>14027</v>
       </c>
+      <c r="D514">
+        <v>248728</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2">
@@ -6034,6 +7578,9 @@
       <c r="C515">
         <v>14024</v>
       </c>
+      <c r="D515">
+        <v>248821</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2">
@@ -6045,6 +7592,9 @@
       <c r="C516">
         <v>14022</v>
       </c>
+      <c r="D516">
+        <v>248326</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2">
@@ -6056,6 +7606,9 @@
       <c r="C517">
         <v>14033</v>
       </c>
+      <c r="D517">
+        <v>242126</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2">
@@ -6067,6 +7620,9 @@
       <c r="C518">
         <v>14034</v>
       </c>
+      <c r="D518">
+        <v>241491</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2">
@@ -6078,6 +7634,9 @@
       <c r="C519">
         <v>14030</v>
       </c>
+      <c r="D519">
+        <v>248563</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2">
@@ -6089,6 +7648,9 @@
       <c r="C520">
         <v>14024</v>
       </c>
+      <c r="D520">
+        <v>238719</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2">
@@ -6100,6 +7662,9 @@
       <c r="C521">
         <v>14028</v>
       </c>
+      <c r="D521">
+        <v>245453</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2">
@@ -6111,6 +7676,9 @@
       <c r="C522">
         <v>14040</v>
       </c>
+      <c r="D522">
+        <v>244668</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2">
@@ -6122,6 +7690,9 @@
       <c r="C523">
         <v>14031</v>
       </c>
+      <c r="D523">
+        <v>247854</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2">
@@ -6133,6 +7704,9 @@
       <c r="C524">
         <v>14029</v>
       </c>
+      <c r="D524">
+        <v>248573</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2">
@@ -6144,6 +7718,9 @@
       <c r="C525">
         <v>14032</v>
       </c>
+      <c r="D525">
+        <v>250192</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2">
@@ -6155,6 +7732,9 @@
       <c r="C526">
         <v>14032</v>
       </c>
+      <c r="D526">
+        <v>248910</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2">
@@ -6166,6 +7746,9 @@
       <c r="C527">
         <v>14034</v>
       </c>
+      <c r="D527">
+        <v>248385</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2">
@@ -6177,6 +7760,9 @@
       <c r="C528">
         <v>14041</v>
       </c>
+      <c r="D528">
+        <v>247582</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2">
@@ -6188,6 +7774,9 @@
       <c r="C529">
         <v>14026</v>
       </c>
+      <c r="D529">
+        <v>246663</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2">
@@ -6199,6 +7788,9 @@
       <c r="C530">
         <v>14026</v>
       </c>
+      <c r="D530">
+        <v>242687</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2">
@@ -6210,6 +7802,9 @@
       <c r="C531">
         <v>14037</v>
       </c>
+      <c r="D531">
+        <v>240841</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2">
@@ -6221,6 +7816,9 @@
       <c r="C532">
         <v>14050</v>
       </c>
+      <c r="D532">
+        <v>244246</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2">
@@ -6232,6 +7830,9 @@
       <c r="C533">
         <v>14070</v>
       </c>
+      <c r="D533">
+        <v>248342</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2">
@@ -6243,6 +7844,9 @@
       <c r="C534">
         <v>14053</v>
       </c>
+      <c r="D534">
+        <v>254009</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2">
@@ -6254,6 +7858,9 @@
       <c r="C535">
         <v>14108</v>
       </c>
+      <c r="D535">
+        <v>252489</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2">
@@ -6265,6 +7872,9 @@
       <c r="C536">
         <v>14135</v>
       </c>
+      <c r="D536">
+        <v>258056</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2">
@@ -6276,6 +7886,9 @@
       <c r="C537">
         <v>14104</v>
       </c>
+      <c r="D537">
+        <v>259419</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2">
@@ -6287,6 +7900,9 @@
       <c r="C538">
         <v>14121</v>
       </c>
+      <c r="D538">
+        <v>255164</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2">
@@ -6298,6 +7914,9 @@
       <c r="C539">
         <v>14136</v>
       </c>
+      <c r="D539">
+        <v>262716</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2">
@@ -6309,6 +7928,9 @@
       <c r="C540">
         <v>14139</v>
       </c>
+      <c r="D540">
+        <v>255949</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2">
@@ -6320,6 +7942,9 @@
       <c r="C541">
         <v>14145</v>
       </c>
+      <c r="D541">
+        <v>261648</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2">
@@ -6331,6 +7956,9 @@
       <c r="C542">
         <v>14150</v>
       </c>
+      <c r="D542">
+        <v>260864</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2">
@@ -6342,6 +7970,9 @@
       <c r="C543">
         <v>14160</v>
       </c>
+      <c r="D543">
+        <v>258615</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2">
@@ -6353,6 +7984,9 @@
       <c r="C544">
         <v>14155</v>
       </c>
+      <c r="D544">
+        <v>262716</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2">
@@ -6364,6 +7998,9 @@
       <c r="C545">
         <v>14172</v>
       </c>
+      <c r="D545">
+        <v>271201</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2">
@@ -6375,6 +8012,9 @@
       <c r="C546">
         <v>14185</v>
       </c>
+      <c r="D546">
+        <v>272827</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2">
@@ -6386,6 +8026,9 @@
       <c r="C547">
         <v>14188</v>
       </c>
+      <c r="D547">
+        <v>278849</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2">
@@ -6397,6 +8040,9 @@
       <c r="C548">
         <v>14221</v>
       </c>
+      <c r="D548">
+        <v>277454</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2">
@@ -6408,6 +8054,9 @@
       <c r="C549">
         <v>14223</v>
       </c>
+      <c r="D549">
+        <v>282866</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2">
@@ -6419,6 +8068,9 @@
       <c r="C550">
         <v>14198</v>
       </c>
+      <c r="D550">
+        <v>273951</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2">
@@ -6430,6 +8082,9 @@
       <c r="C551">
         <v>14213</v>
       </c>
+      <c r="D551">
+        <v>267121</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2">
@@ -6441,6 +8096,9 @@
       <c r="C552">
         <v>14225</v>
       </c>
+      <c r="D552">
+        <v>264908</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2">
@@ -6452,6 +8110,9 @@
       <c r="C553">
         <v>14233</v>
       </c>
+      <c r="D553">
+        <v>273222</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2">
@@ -6463,6 +8124,9 @@
       <c r="C554">
         <v>14257</v>
       </c>
+      <c r="D554">
+        <v>281813</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2">
@@ -6474,6 +8138,9 @@
       <c r="C555">
         <v>14280</v>
       </c>
+      <c r="D555">
+        <v>279769</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2">
@@ -6485,6 +8152,9 @@
       <c r="C556">
         <v>14304</v>
       </c>
+      <c r="D556">
+        <v>278853</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2">
@@ -6496,6 +8166,9 @@
       <c r="C557">
         <v>14303</v>
       </c>
+      <c r="D557">
+        <v>275046</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2">
@@ -6507,6 +8180,9 @@
       <c r="C558">
         <v>14312</v>
       </c>
+      <c r="D558">
+        <v>271359</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2">
@@ -6518,6 +8194,9 @@
       <c r="C559">
         <v>14280</v>
       </c>
+      <c r="D559">
+        <v>278661</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2">
@@ -6529,6 +8208,9 @@
       <c r="C560">
         <v>14370</v>
       </c>
+      <c r="D560">
+        <v>270464</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2">
@@ -6540,6 +8222,9 @@
       <c r="C561">
         <v>14352</v>
       </c>
+      <c r="D561">
+        <v>269707</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2">
@@ -6551,6 +8236,9 @@
       <c r="C562">
         <v>14349</v>
       </c>
+      <c r="D562">
+        <v>273629</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2">
@@ -6562,6 +8250,9 @@
       <c r="C563">
         <v>14354</v>
       </c>
+      <c r="D563">
+        <v>276051</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2">
@@ -6573,6 +8264,9 @@
       <c r="C564">
         <v>14352</v>
       </c>
+      <c r="D564">
+        <v>276707</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2">
@@ -6584,6 +8278,9 @@
       <c r="C565">
         <v>14350</v>
       </c>
+      <c r="D565">
+        <v>271401</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2">
@@ -6595,6 +8292,9 @@
       <c r="C566">
         <v>14336</v>
       </c>
+      <c r="D566">
+        <v>268374</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2">
@@ -6606,6 +8306,9 @@
       <c r="C567">
         <v>14346</v>
       </c>
+      <c r="D567">
+        <v>277550</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2">
@@ -6617,6 +8320,9 @@
       <c r="C568">
         <v>14351</v>
       </c>
+      <c r="D568">
+        <v>277659</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2">
@@ -6628,6 +8334,9 @@
       <c r="C569">
         <v>14364</v>
       </c>
+      <c r="D569">
+        <v>270348</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2">
@@ -6639,6 +8348,9 @@
       <c r="C570">
         <v>14350</v>
       </c>
+      <c r="D570">
+        <v>279051</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2">
@@ -6650,6 +8362,9 @@
       <c r="C571">
         <v>14370</v>
       </c>
+      <c r="D571">
+        <v>277238</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2">
@@ -6661,6 +8376,9 @@
       <c r="C572">
         <v>14381</v>
       </c>
+      <c r="D572">
+        <v>275405</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2">
@@ -6672,6 +8390,9 @@
       <c r="C573">
         <v>14388</v>
       </c>
+      <c r="D573">
+        <v>272425</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2">
@@ -6683,6 +8404,9 @@
       <c r="C574">
         <v>14404</v>
       </c>
+      <c r="D574">
+        <v>273831</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2">
@@ -6694,6 +8418,9 @@
       <c r="C575">
         <v>14411</v>
       </c>
+      <c r="D575">
+        <v>277575</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2">
@@ -6705,6 +8432,9 @@
       <c r="C576">
         <v>14430</v>
       </c>
+      <c r="D576">
+        <v>279661</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2">
@@ -6716,6 +8446,9 @@
       <c r="C577">
         <v>14428</v>
       </c>
+      <c r="D577">
+        <v>278978</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2">
@@ -6727,6 +8460,9 @@
       <c r="C578">
         <v>14407</v>
       </c>
+      <c r="D578">
+        <v>281551</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2">
@@ -6738,6 +8474,9 @@
       <c r="C579">
         <v>14462</v>
       </c>
+      <c r="D579">
+        <v>284823</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2">
@@ -6749,6 +8488,9 @@
       <c r="C580">
         <v>14457</v>
       </c>
+      <c r="D580">
+        <v>287729</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2">
@@ -6760,6 +8502,9 @@
       <c r="C581">
         <v>14452</v>
       </c>
+      <c r="D581">
+        <v>292920</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2">
@@ -6771,6 +8516,9 @@
       <c r="C582">
         <v>14465</v>
       </c>
+      <c r="D582">
+        <v>293259</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2">
@@ -6782,6 +8530,9 @@
       <c r="C583">
         <v>14483</v>
       </c>
+      <c r="D583">
+        <v>292914</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2">
@@ -6793,6 +8544,9 @@
       <c r="C584">
         <v>14486</v>
       </c>
+      <c r="D584">
+        <v>293359</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2">
@@ -6804,6 +8558,9 @@
       <c r="C585">
         <v>14506</v>
       </c>
+      <c r="D585">
+        <v>296873</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2">
@@ -6815,6 +8572,9 @@
       <c r="C586">
         <v>14492</v>
       </c>
+      <c r="D586">
+        <v>284683</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2">
@@ -6826,6 +8586,9 @@
       <c r="C587">
         <v>14496</v>
       </c>
+      <c r="D587">
+        <v>283131</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2">
@@ -6837,6 +8600,9 @@
       <c r="C588">
         <v>14502</v>
       </c>
+      <c r="D588">
+        <v>281301</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2">
@@ -6848,6 +8614,9 @@
       <c r="C589">
         <v>14513</v>
       </c>
+      <c r="D589">
+        <v>284748</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2">
@@ -6859,6 +8628,9 @@
       <c r="C590">
         <v>14525</v>
       </c>
+      <c r="D590">
+        <v>291860</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2">
@@ -6870,6 +8642,9 @@
       <c r="C591">
         <v>14524</v>
       </c>
+      <c r="D591">
+        <v>302510</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2">
@@ -6881,6 +8656,9 @@
       <c r="C592">
         <v>14538</v>
       </c>
+      <c r="D592">
+        <v>305094</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2">
@@ -6892,6 +8670,9 @@
       <c r="C593">
         <v>14561</v>
       </c>
+      <c r="D593">
+        <v>321366</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2">
@@ -6903,6 +8684,9 @@
       <c r="C594">
         <v>14567</v>
       </c>
+      <c r="D594">
+        <v>314167</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2">
@@ -6914,6 +8698,9 @@
       <c r="C595">
         <v>14567</v>
       </c>
+      <c r="D595">
+        <v>306530</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2">
@@ -6925,6 +8712,9 @@
       <c r="C596">
         <v>14588</v>
       </c>
+      <c r="D596">
+        <v>309888</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2">
@@ -6936,6 +8726,9 @@
       <c r="C597">
         <v>14596</v>
       </c>
+      <c r="D597">
+        <v>307122</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2">
@@ -6947,6 +8740,9 @@
       <c r="C598">
         <v>14612</v>
       </c>
+      <c r="D598">
+        <v>317393</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2">
@@ -6958,6 +8754,9 @@
       <c r="C599">
         <v>14617</v>
       </c>
+      <c r="D599">
+        <v>308418</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2">
@@ -6969,6 +8768,9 @@
       <c r="C600">
         <v>14628</v>
       </c>
+      <c r="D600">
+        <v>312371</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2">
@@ -6980,6 +8782,9 @@
       <c r="C601">
         <v>14648</v>
       </c>
+      <c r="D601">
+        <v>317637</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2">
@@ -6991,6 +8796,9 @@
       <c r="C602">
         <v>14669</v>
       </c>
+      <c r="D602">
+        <v>324869</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2">
@@ -7002,6 +8810,9 @@
       <c r="C603">
         <v>14679</v>
       </c>
+      <c r="D603">
+        <v>326613</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2">
@@ -7013,6 +8824,9 @@
       <c r="C604">
         <v>14680</v>
       </c>
+      <c r="D604">
+        <v>334171</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2">
@@ -7024,6 +8838,9 @@
       <c r="C605">
         <v>13890</v>
       </c>
+      <c r="D605">
+        <v>324815</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2">
@@ -7035,6 +8852,9 @@
       <c r="C606">
         <v>13424</v>
       </c>
+      <c r="D606">
+        <v>330175</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2">
@@ -7046,6 +8866,9 @@
       <c r="C607">
         <v>13461</v>
       </c>
+      <c r="D607">
+        <v>325950</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2">
@@ -7057,6 +8880,9 @@
       <c r="C608">
         <v>13676</v>
       </c>
+      <c r="D608">
+        <v>321481</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2">
@@ -7068,6 +8894,9 @@
       <c r="C609">
         <v>13865</v>
       </c>
+      <c r="D609">
+        <v>317438</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2">
@@ -7079,6 +8908,9 @@
       <c r="C610">
         <v>13749</v>
       </c>
+      <c r="D610">
+        <v>318046</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2">
@@ -7090,6 +8922,9 @@
       <c r="C611">
         <v>13689</v>
       </c>
+      <c r="D611">
+        <v>320595</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2">
@@ -7101,6 +8936,9 @@
       <c r="C612">
         <v>13699</v>
       </c>
+      <c r="D612">
+        <v>321036</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2">
@@ -7111,6 +8949,9 @@
       </c>
       <c r="C613">
         <v>13667</v>
+      </c>
+      <c r="D613">
+        <v>319892.3333333333</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/haver/state_local_employment.xlsx
+++ b/data/raw/haver/state_local_employment.xlsx
@@ -8923,7 +8923,7 @@
         <v>13689</v>
       </c>
       <c r="D611">
-        <v>320595</v>
+        <v>324454</v>
       </c>
     </row>
     <row r="612">
@@ -8937,7 +8937,7 @@
         <v>13699</v>
       </c>
       <c r="D612">
-        <v>321036</v>
+        <v>324969</v>
       </c>
     </row>
     <row r="613">
@@ -8951,7 +8951,7 @@
         <v>13667</v>
       </c>
       <c r="D613">
-        <v>319892.3333333333</v>
+        <v>326302</v>
       </c>
     </row>
   </sheetData>
